--- a/enum2.xlsx
+++ b/enum2.xlsx
@@ -19,16 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="54">
-  <si>
-    <t>Id</t>
-  </si>
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>Description</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="87">
   <si>
     <t>Undefined</t>
   </si>
@@ -171,16 +162,124 @@
     <t>На реструктуризации</t>
   </si>
   <si>
-    <t>EnumId</t>
-  </si>
-  <si>
-    <t>ProductType</t>
-  </si>
-  <si>
-    <t>id</t>
-  </si>
-  <si>
     <t>prd.EnumProductState</t>
+  </si>
+  <si>
+    <t>Card</t>
+  </si>
+  <si>
+    <t>Bank</t>
+  </si>
+  <si>
+    <t>Yandex</t>
+  </si>
+  <si>
+    <t>Qiwi</t>
+  </si>
+  <si>
+    <t>Contact</t>
+  </si>
+  <si>
+    <t>Cyberplat</t>
+  </si>
+  <si>
+    <t>SberbankOnline</t>
+  </si>
+  <si>
+    <t>Карта</t>
+  </si>
+  <si>
+    <t>Банковский счет</t>
+  </si>
+  <si>
+    <t>Яндекс.Деньги</t>
+  </si>
+  <si>
+    <t>Qiwi-кошелек</t>
+  </si>
+  <si>
+    <t>pmt.EnumPaymentWay</t>
+  </si>
+  <si>
+    <t>pmt.EnumPaymentStatus</t>
+  </si>
+  <si>
+    <t>Fail</t>
+  </si>
+  <si>
+    <t>Ошибка</t>
+  </si>
+  <si>
+    <t>Success</t>
+  </si>
+  <si>
+    <t>Успешный</t>
+  </si>
+  <si>
+    <t>NeedCheck</t>
+  </si>
+  <si>
+    <t>Требуется проверка</t>
+  </si>
+  <si>
+    <t>Accounted</t>
+  </si>
+  <si>
+    <t>Проведён</t>
+  </si>
+  <si>
+    <t>Declined</t>
+  </si>
+  <si>
+    <t>Отклонен</t>
+  </si>
+  <si>
+    <t>Purchase</t>
+  </si>
+  <si>
+    <t>Погашение займа с непривязанной карты (без токена)</t>
+  </si>
+  <si>
+    <t>PurchaseOnHoldRecurring</t>
+  </si>
+  <si>
+    <t>Регистрация банковской карты (получение токена)</t>
+  </si>
+  <si>
+    <t>FundsAccess</t>
+  </si>
+  <si>
+    <t>Погашение займа клиентом с привязанной карты (с токеном), Яндекс.Денег, Qiwi, Cyberplat и через банковский счет</t>
+  </si>
+  <si>
+    <t>Credit</t>
+  </si>
+  <si>
+    <t>Перечисление денежных средств клиенту (любым путем)</t>
+  </si>
+  <si>
+    <t>MoneyTransfer</t>
+  </si>
+  <si>
+    <t>Перевод денег клиенту (любым способом)</t>
+  </si>
+  <si>
+    <t>pmt.EnumPaymentType</t>
+  </si>
+  <si>
+    <t>pmt.EnumPaymentKind</t>
+  </si>
+  <si>
+    <t>General</t>
+  </si>
+  <si>
+    <t>Погашение займа</t>
+  </si>
+  <si>
+    <t>Prolongation</t>
+  </si>
+  <si>
+    <t>Продление займа</t>
   </si>
 </sst>
 </file>
@@ -193,7 +292,7 @@
     <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;₽&quot;_-;\-* #,##0.00\ &quot;₽&quot;_-;_-* &quot;-&quot;??\ &quot;₽&quot;_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00\ _₽_-;\-* #,##0.00\ _₽_-;_-* &quot;-&quot;??\ _₽_-;_-@_-"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -218,21 +317,13 @@
       <charset val="204"/>
     </font>
     <font>
-      <b/>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="204"/>
-    </font>
-    <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -241,23 +332,32 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFE8E4DC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFECEBEB"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -270,17 +370,29 @@
     <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="6" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="6" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Comma" xfId="4"/>
@@ -695,501 +807,695 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:Q17"/>
+  <dimension ref="A1:Q29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="V10" sqref="V10"/>
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="6.5703125" customWidth="1"/>
-    <col min="2" max="2" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="35.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="3.5703125" customWidth="1"/>
-    <col min="5" max="5" width="6.5703125" customWidth="1"/>
-    <col min="6" max="6" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="3.5703125" customWidth="1"/>
-    <col min="9" max="9" width="6.5703125" customWidth="1"/>
-    <col min="10" max="10" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.5703125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="23.42578125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="38.7109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="3.5703125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="6.28515625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18" style="1" customWidth="1"/>
+    <col min="8" max="8" width="3.5703125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="6.5703125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="19.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
       <c r="E1" s="3" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
       <c r="I1" s="3" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="J1" s="3"/>
       <c r="K1" s="3"/>
       <c r="L1" s="3"/>
       <c r="M1" s="3"/>
-      <c r="O1" s="5"/>
-      <c r="P1" s="5"/>
-      <c r="Q1" s="5"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="4">
+        <v>0</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="4">
+        <v>0</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="I2" s="4">
+        <v>1000</v>
+      </c>
+      <c r="J2" s="4">
+        <v>0</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="M2" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A3" s="5">
+        <v>101</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="5">
+        <v>1</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I3" s="5">
+        <v>1001</v>
+      </c>
+      <c r="J3" s="5">
+        <v>1</v>
+      </c>
+      <c r="K3" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="L3" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="M3" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A4" s="4">
+        <v>102</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="4">
+        <v>2</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="I4" s="4">
+        <v>1002</v>
+      </c>
+      <c r="J4" s="4">
+        <v>2</v>
+      </c>
+      <c r="K4" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="L4" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="M4" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A5" s="5">
+        <v>201</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="5">
+        <v>3</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="I5" s="5">
+        <v>1003</v>
+      </c>
+      <c r="J5" s="5">
+        <v>3</v>
+      </c>
+      <c r="K5" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="L5" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="M5" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A6" s="4">
+        <v>202</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="4">
+        <v>4</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="I6" s="4">
+        <v>1004</v>
+      </c>
+      <c r="J6" s="4">
+        <v>4</v>
+      </c>
+      <c r="K6" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="L6" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="M6" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A7" s="5">
+        <v>203</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="I7" s="5">
+        <v>1005</v>
+      </c>
+      <c r="J7" s="5">
+        <v>5</v>
+      </c>
+      <c r="K7" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="L7" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="M7" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A8" s="4">
+        <v>204</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="I8" s="4">
+        <v>1006</v>
+      </c>
+      <c r="J8" s="4">
+        <v>6</v>
+      </c>
+      <c r="K8" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="L8" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="M8" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A9" s="5">
+        <v>301</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9" s="5">
+        <v>1</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="I9" s="5">
+        <v>1007</v>
+      </c>
+      <c r="J9" s="5">
+        <v>7</v>
+      </c>
+      <c r="K9" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="L9" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="M9" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A10" s="4">
+        <v>302</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E10" s="4">
+        <v>2</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="I10" s="4">
+        <v>2000</v>
+      </c>
+      <c r="J10" s="4">
+        <v>0</v>
+      </c>
+      <c r="K10" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="L10" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="M10" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A11" s="5">
+        <v>303</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E11" s="5">
+        <v>3</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="I11" s="5">
+        <v>2001</v>
+      </c>
+      <c r="J11" s="5">
+        <v>1</v>
+      </c>
+      <c r="K11" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="L11" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="M11" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A12" s="4">
+        <v>304</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12" s="4">
+        <v>4</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="I12" s="4">
+        <v>2002</v>
+      </c>
+      <c r="J12" s="4">
+        <v>2</v>
+      </c>
+      <c r="K12" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="L12" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="M12" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A13" s="5">
+        <v>401</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13" s="5">
+        <v>5</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="I13" s="5">
+        <v>2003</v>
+      </c>
+      <c r="J13" s="5">
+        <v>3</v>
+      </c>
+      <c r="K13" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="L13" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="M13" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="E14" s="4">
+        <v>6</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="I14" s="4">
+        <v>2004</v>
+      </c>
+      <c r="J14" s="4">
+        <v>4</v>
+      </c>
+      <c r="K14" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="L14" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="M14" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A15" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="I15" s="5">
+        <v>2005</v>
+      </c>
+      <c r="J15" s="5">
+        <v>5</v>
+      </c>
+      <c r="K15" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="L15" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="M15" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A16" s="5">
+        <v>1</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="I16" s="4">
+        <v>2006</v>
+      </c>
+      <c r="J16" s="4">
+        <v>6</v>
+      </c>
+      <c r="K16" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="L16" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="M16" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17" s="4">
+        <v>2</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="E17" s="5">
+        <v>1</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18" s="5">
+        <v>3</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="E18" s="4">
+        <v>2</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19" s="4">
+        <v>4</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20" s="5">
+        <v>5</v>
+      </c>
+      <c r="B20" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="4" t="s">
+      <c r="C20" s="5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A21" s="4">
+        <v>6</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A22" s="5">
+        <v>7</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A24" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+    </row>
+    <row r="25" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A25" s="6">
+        <v>1</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A26" s="7">
         <v>2</v>
       </c>
-      <c r="E2" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="J2" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="K2" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="L2" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="M2" s="4" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A3" s="1">
-        <v>0</v>
-      </c>
-      <c r="B3" s="1" t="s">
+      <c r="B26" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A27" s="6">
         <v>3</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="B27" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A28" s="7">
         <v>4</v>
       </c>
-      <c r="E3" s="1">
-        <v>0</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="I3" s="1">
-        <v>1000</v>
-      </c>
-      <c r="J3" s="1">
-        <v>0</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="M3" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A4" s="2">
-        <v>101</v>
-      </c>
-      <c r="B4" s="2" t="s">
+      <c r="B28" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A29" s="6">
         <v>5</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E4" s="2">
-        <v>1</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="I4" s="2">
-        <v>1001</v>
-      </c>
-      <c r="J4" s="2">
-        <v>1</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="L4" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="M4" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A5" s="1">
-        <v>102</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E5" s="1">
-        <v>2</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="I5" s="1">
-        <v>1002</v>
-      </c>
-      <c r="J5" s="1">
-        <v>2</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="L5" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="M5" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A6" s="2">
-        <v>201</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E6" s="2">
-        <v>3</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="I6" s="2">
-        <v>1003</v>
-      </c>
-      <c r="J6" s="2">
-        <v>3</v>
-      </c>
-      <c r="K6" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="L6" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="M6" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A7" s="1">
-        <v>202</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" s="1">
-        <v>4</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="I7" s="1">
-        <v>1004</v>
-      </c>
-      <c r="J7" s="1">
-        <v>4</v>
-      </c>
-      <c r="K7" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="L7" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="M7" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A8" s="2">
-        <v>203</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I8" s="2">
-        <v>1005</v>
-      </c>
-      <c r="J8" s="2">
-        <v>5</v>
-      </c>
-      <c r="K8" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="L8" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="M8" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A9" s="1">
-        <v>204</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I9" s="1">
-        <v>1006</v>
-      </c>
-      <c r="J9" s="1">
-        <v>6</v>
-      </c>
-      <c r="K9" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="L9" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="M9" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A10" s="2">
-        <v>301</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="I10" s="2">
-        <v>1007</v>
-      </c>
-      <c r="J10" s="2">
-        <v>7</v>
-      </c>
-      <c r="K10" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="L10" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="M10" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A11" s="1">
-        <v>302</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="I11" s="1">
-        <v>2000</v>
-      </c>
-      <c r="J11" s="1">
-        <v>0</v>
-      </c>
-      <c r="K11" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="L11" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="M11" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A12" s="2">
-        <v>303</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="I12" s="2">
-        <v>2001</v>
-      </c>
-      <c r="J12" s="2">
-        <v>1</v>
-      </c>
-      <c r="K12" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="L12" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="M12" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A13" s="1">
-        <v>304</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="I13" s="1">
-        <v>2002</v>
-      </c>
-      <c r="J13" s="1">
-        <v>2</v>
-      </c>
-      <c r="K13" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="L13" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="M13" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A14" s="2">
-        <v>401</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="I14" s="2">
-        <v>2003</v>
-      </c>
-      <c r="J14" s="2">
-        <v>3</v>
-      </c>
-      <c r="K14" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="L14" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="M14" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="I15" s="1">
-        <v>2004</v>
-      </c>
-      <c r="J15" s="1">
-        <v>4</v>
-      </c>
-      <c r="K15" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="L15" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="M15" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="I16" s="2">
-        <v>2005</v>
-      </c>
-      <c r="J16" s="2">
-        <v>5</v>
-      </c>
-      <c r="K16" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="L16" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="M16" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="9:13" x14ac:dyDescent="0.2">
-      <c r="I17" s="1">
-        <v>2006</v>
-      </c>
-      <c r="J17" s="1">
-        <v>6</v>
-      </c>
-      <c r="K17" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="L17" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="M17" s="1">
-        <v>2</v>
+      <c r="B29" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>80</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="7">
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="E16:G16"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="E1:G1"/>
     <mergeCell ref="I1:M1"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="E8:G8"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="91" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="86" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>